--- a/traceability matrix.xlsx
+++ b/traceability matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="66">
   <si>
     <t>Requirement</t>
   </si>
@@ -41,24 +41,12 @@
     <t>C# app</t>
   </si>
   <si>
-    <t>Rent camping spot</t>
-  </si>
-  <si>
     <t>Loan devices</t>
   </si>
   <si>
-    <t>Pay for tickets</t>
-  </si>
-  <si>
     <t>Pay at event</t>
   </si>
   <si>
-    <t>Nr of people at event</t>
-  </si>
-  <si>
-    <t>Nr of people who left</t>
-  </si>
-  <si>
     <t>Covert info from PayPal</t>
   </si>
   <si>
@@ -71,21 +59,9 @@
     <t>app at entrance of event</t>
   </si>
   <si>
-    <t>php?</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>app at loaning stand</t>
   </si>
   <si>
-    <t xml:space="preserve">PayPal button </t>
-  </si>
-  <si>
-    <t>app for converting PayPal infro</t>
-  </si>
-  <si>
     <t>app at exit of event</t>
   </si>
   <si>
@@ -95,49 +71,157 @@
     <t>PayPal text-file app</t>
   </si>
   <si>
-    <t>Visitor history</t>
-  </si>
-  <si>
     <t>purchase history</t>
   </si>
   <si>
     <t>visitor</t>
   </si>
   <si>
-    <t>Loan materials</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>event account</t>
   </si>
   <si>
-    <t>avent account</t>
-  </si>
-  <si>
     <t>Total balance of all event-accounts</t>
   </si>
   <si>
-    <t>app for organizers</t>
-  </si>
-  <si>
     <t>Money earned in a shop</t>
   </si>
   <si>
     <t>Units of an article sold</t>
   </si>
   <si>
-    <t>Placing tweeds on website</t>
-  </si>
-  <si>
     <t>Generate sales receipt</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Current state of a visitor</t>
+  </si>
+  <si>
+    <t>WEBSITE:</t>
+  </si>
+  <si>
+    <t>Reserve camping spot</t>
+  </si>
+  <si>
+    <t>Contact information</t>
+  </si>
+  <si>
+    <t>Location of event</t>
+  </si>
+  <si>
+    <t>General information</t>
+  </si>
+  <si>
+    <t>Connection to database</t>
+  </si>
+  <si>
+    <t>Payment with PayPal</t>
+  </si>
+  <si>
+    <t>BuyTicket.php</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>About.php</t>
+  </si>
+  <si>
+    <t>Location.php</t>
+  </si>
+  <si>
+    <t>About/Gallery</t>
+  </si>
+  <si>
+    <t>BookCamping</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>APPLICATIONS:</t>
+  </si>
+  <si>
+    <t>Check ID at entrance</t>
+  </si>
+  <si>
+    <t>Lend</t>
+  </si>
+  <si>
+    <t>DATABASE:</t>
+  </si>
+  <si>
+    <t>History of a visitor</t>
+  </si>
+  <si>
+    <t>Number of people at event</t>
+  </si>
+  <si>
+    <t>Number of people who left</t>
+  </si>
+  <si>
+    <t>Place tweeds</t>
+  </si>
+  <si>
+    <t>Money earned in total</t>
+  </si>
+  <si>
+    <t>Number of available/non-vailable camping spots</t>
+  </si>
+  <si>
+    <t>Store information about transactions form PayPal</t>
+  </si>
+  <si>
+    <t>Store information about renting equipment</t>
+  </si>
+  <si>
+    <t>Store information about selling products</t>
+  </si>
+  <si>
+    <t>Event account</t>
+  </si>
+  <si>
+    <t>Purchase history</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Rent Equipment</t>
+  </si>
+  <si>
+    <t>Check if camping spot is reserved</t>
+  </si>
+  <si>
+    <t>Check if device is returned at a visitor's leaving</t>
+  </si>
+  <si>
+    <t>Check if there is money in event account at exit</t>
+  </si>
+  <si>
+    <t>visitor, shop, product</t>
+  </si>
+  <si>
+    <t>transaction?</t>
+  </si>
+  <si>
+    <t>app for generating sales receipt</t>
+  </si>
+  <si>
+    <t>camping</t>
+  </si>
+  <si>
+    <t>app at entrance of camping</t>
   </si>
 </sst>
 </file>
@@ -169,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -178,16 +262,157 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -196,16 +421,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,267 +766,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
